--- a/results/initial_look/aluminium_2018_workbook.xlsx
+++ b/results/initial_look/aluminium_2018_workbook.xlsx
@@ -5960,7 +5960,7 @@
         <v>0.0058029048</v>
       </c>
       <c r="E13">
-        <v>0.004677492960000001</v>
+        <v>0.004153473072</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5974,10 +5974,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>0.7248455992552449</v>
+        <v>0.7248456115199999</v>
       </c>
       <c r="E14">
-        <v>0.6299894711914342</v>
+        <v>1.126404614016</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5991,10 +5991,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>0.407357051902173</v>
+        <v>0.4073570521989841</v>
       </c>
       <c r="E15">
-        <v>0.3635204633188209</v>
+        <v>0.3493635690019802</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6059,10 +6059,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>2.439011849699872</v>
+        <v>2.4390108024696</v>
       </c>
       <c r="E19">
-        <v>3.111577388980112</v>
+        <v>3.2179627109052</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6280,10 +6280,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>4.421494119310847</v>
+        <v>0.3801116418164227</v>
       </c>
       <c r="E32">
-        <v>8.562411052217207</v>
+        <v>0.7361023299229564</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6297,10 +6297,10 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>0.106240426812</v>
+        <v>0.106240346257968</v>
       </c>
       <c r="E33">
-        <v>0.2389322605320001</v>
+        <v>0.2389322940264</v>
       </c>
     </row>
   </sheetData>
@@ -9404,7 +9404,7 @@
         <v>5.0406392448</v>
       </c>
       <c r="E13">
-        <v>4.96101133296</v>
+        <v>4.960487313072</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9418,10 +9418,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>5.697466091255246</v>
+        <v>5.697466103520001</v>
       </c>
       <c r="E14">
-        <v>5.783563459191434</v>
+        <v>6.279978602016</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9435,10 +9435,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>2.840557739902173</v>
+        <v>2.840557740198984</v>
       </c>
       <c r="E15">
-        <v>2.321016935318821</v>
+        <v>2.30686004100198</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9503,10 +9503,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>32.05714680569987</v>
+        <v>32.0571457584696</v>
       </c>
       <c r="E19">
-        <v>32.62370256898011</v>
+        <v>32.7300878909052</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9724,10 +9724,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>83.50001406331086</v>
+        <v>79.45863158581643</v>
       </c>
       <c r="E32">
-        <v>87.46680198421724</v>
+        <v>79.64049326192297</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9741,10 +9741,10 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>0.108291958812</v>
+        <v>0.108291878257968</v>
       </c>
       <c r="E33">
-        <v>0.2411931325320001</v>
+        <v>0.2411931660264</v>
       </c>
     </row>
   </sheetData>
@@ -9978,7 +9978,7 @@
         <v>0.1336259088000001</v>
       </c>
       <c r="E13">
-        <v>0.13250049696</v>
+        <v>0.1319764770720001</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9992,10 +9992,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>1.278633635255245</v>
+        <v>1.27863364752</v>
       </c>
       <c r="E14">
-        <v>1.524583027191434</v>
+        <v>2.020998170016</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10009,10 +10009,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>1.027463999902173</v>
+        <v>1.027464000198984</v>
       </c>
       <c r="E15">
-        <v>0.8882102393188209</v>
+        <v>0.8740533450019802</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10077,10 +10077,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>13.28726185769987</v>
+        <v>13.2872608104696</v>
       </c>
       <c r="E19">
-        <v>13.91247468898012</v>
+        <v>14.0188600109052</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10298,10 +10298,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>36.82900083931085</v>
+        <v>32.78761836181642</v>
       </c>
       <c r="E32">
-        <v>41.10967315621721</v>
+        <v>33.28336443392296</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10315,10 +10315,10 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>0.108291958812</v>
+        <v>0.108291878257968</v>
       </c>
       <c r="E33">
-        <v>0.2411931325320001</v>
+        <v>0.2411931660264</v>
       </c>
     </row>
   </sheetData>
@@ -12274,7 +12274,7 @@
         <v>33.4221190848</v>
       </c>
       <c r="E13">
-        <v>35.52628418496</v>
+        <v>35.525760165072</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -12288,10 +12288,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>20.26376197125525</v>
+        <v>20.26376198352</v>
       </c>
       <c r="E14">
-        <v>16.41389052719144</v>
+        <v>16.910305670016</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -12305,10 +12305,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>7.265167979902174</v>
+        <v>7.265167980198983</v>
       </c>
       <c r="E15">
-        <v>8.654556767318821</v>
+        <v>8.64039987300198</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -12373,10 +12373,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>507.5441017429065</v>
+        <v>507.5441006956763</v>
       </c>
       <c r="E19">
-        <v>544.9040694559214</v>
+        <v>545.0104547778466</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -12594,10 +12594,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>3258.554518695312</v>
+        <v>3254.513136217817</v>
       </c>
       <c r="E32">
-        <v>3402.334342852218</v>
+        <v>3394.508034129924</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -12611,10 +12611,10 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>186.804231962812</v>
+        <v>186.804231882258</v>
       </c>
       <c r="E33">
-        <v>239.146760760532</v>
+        <v>239.1467607940264</v>
       </c>
     </row>
   </sheetData>

--- a/results/initial_look/aluminium_2018_workbook.xlsx
+++ b/results/initial_look/aluminium_2018_workbook.xlsx
@@ -6280,10 +6280,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>0.3801116418164227</v>
+        <v>4.4206983936</v>
       </c>
       <c r="E32">
-        <v>0.7361023299229564</v>
+        <v>8.560870095600002</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9724,10 +9724,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>79.45863158581643</v>
+        <v>83.49921833760001</v>
       </c>
       <c r="E32">
-        <v>79.64049326192297</v>
+        <v>87.46526102760002</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10298,10 +10298,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>32.78761836181642</v>
+        <v>36.8282051136</v>
       </c>
       <c r="E32">
-        <v>33.28336443392296</v>
+        <v>41.10813219960001</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -12594,10 +12594,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>3254.513136217817</v>
+        <v>3258.553722969601</v>
       </c>
       <c r="E32">
-        <v>3394.508034129924</v>
+        <v>3402.3328018956</v>
       </c>
     </row>
     <row r="33" spans="1:5">

--- a/results/initial_look/aluminium_2018_workbook.xlsx
+++ b/results/initial_look/aluminium_2018_workbook.xlsx
@@ -6283,7 +6283,7 @@
         <v>4.4206983936</v>
       </c>
       <c r="E32">
-        <v>8.560870095600002</v>
+        <v>8.560870095599999</v>
       </c>
     </row>
     <row r="33" spans="1:5">
